--- a/biology/Botanique/Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais/Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais.xlsx
+++ b/biology/Botanique/Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais/Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette liste rouge régionale des Bryophytes est issue du travail du Conservatoire botanique national de Bailleul (CBNBL)(Lecron, Toussaint et Hauguel 2013)[1]. Son élaboration « a été piloté par le CBNBL, avec l’appui du réseau de botanistes et de bryologues régional. Il a bénéficié d’une valuation par le 
-comité français de l’UICN et d’une validation par le Conseil scientifique régional du patrimoine naturel des Hauts-de-France »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste rouge régionale des Bryophytes est issue du travail du Conservatoire botanique national de Bailleul (CBNBL)(Lecron, Toussaint et Hauguel 2013). Son élaboration « a été piloté par le CBNBL, avec l’appui du réseau de botanistes et de bryologues régional. Il a bénéficié d’une valuation par le 
+comité français de l’UICN et d’une validation par le Conseil scientifique régional du patrimoine naturel des Hauts-de-France ».
 Cette liste regroupe des mousses (au sens strict), des hépatiques et des anthocérotes ; elle comprend 18 taxons disparus régionalement, 62 présumés disparus au niveau régional, 27 en danger critique, 23 en danger et 91 vulnérables.
-En 2013, 18 % des bryophytes du Nord–Pas-de-Calais étaient déjà considérés comme éteint dans ces deux départements (RE + CR*) et près d'un tiers étaient classés menacées (VU + EN + CR) (Lecron, Toussaint et Hauguel 2013). Pour rappel les 5 départements de la région Hauts-de-France comptent en 2019 548 espèces de bryophytes (544 espèces indigènes et 4 espèces naturalisées selon la base de données du CNBL[2]).
+En 2013, 18 % des bryophytes du Nord–Pas-de-Calais étaient déjà considérés comme éteint dans ces deux départements (RE + CR*) et près d'un tiers étaient classés menacées (VU + EN + CR) (Lecron, Toussaint et Hauguel 2013). Pour rappel les 5 départements de la région Hauts-de-France comptent en 2019 548 espèces de bryophytes (544 espèces indigènes et 4 espèces naturalisées selon la base de données du CNBL).
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Taxons disparus au niveau régional (RE)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un taxon est considéré comme éteint au niveau régional (RE) s’il n’a pas été observé depuis plus de 50 ans ou si les stations qu’il occupait ont été visitées à plusieurs reprises dans le but de le retrouver sans y parvenir. (Lecron, Toussaint et Hauguel 2013). On estime en 2019 concernant l'échelle régionale Hauts-de-France que les bryophytes inventoriés par les botanistes du passé (encore disponibles en herbier en général) et classés disparus se sont éteints dans la région avant 1950. Dix-neuf espèces sont par ailleurs signalées comme présumées disparues des Hauts-de-France car non-revues récemment[1]. Dans les Hauts-de-France, « 47 bryophytes, soit 8,8 % du total des espèces, ont disparu du territoire depuis le début des recensements »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un taxon est considéré comme éteint au niveau régional (RE) s’il n’a pas été observé depuis plus de 50 ans ou si les stations qu’il occupait ont été visitées à plusieurs reprises dans le but de le retrouver sans y parvenir. (Lecron, Toussaint et Hauguel 2013). On estime en 2019 concernant l'échelle régionale Hauts-de-France que les bryophytes inventoriés par les botanistes du passé (encore disponibles en herbier en général) et classés disparus se sont éteints dans la région avant 1950. Dix-neuf espèces sont par ailleurs signalées comme présumées disparues des Hauts-de-France car non-revues récemment. Dans les Hauts-de-France, « 47 bryophytes, soit 8,8 % du total des espèces, ont disparu du territoire depuis le début des recensements ».
 Lophocolea minor Nees
 Lophozia excisa (Dicks.) Dumort.
 Moerckia hibernica (Hook.) Gottsche
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +577,9 @@
           <t>Taxons présumés disparus au niveau régional (CR*)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">.
 Blasia pusilla L.
@@ -638,7 +654,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -656,12 +672,49 @@
           <t>Taxons en danger</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019 selon le CBNBL, sur 369 espèces de bryophytes indigènes répertoriées dans le Nord, 13,6 % étaient menacées à échelle de la région Hauts-de-France [3] ; « Plusieurs espèces y trouvent leur ultime population dans le département du Nord, tel le Lycopode des sols inondés (Lycopodiella inundata), sorte de fougère primitive rencontrée dans les landes sur sol acide et oligotrophetrès pauvre en matières nutritives. »[3] ;
-Et sur 340 espèces de bryophytes indigènes répertoriés dans le Pas-de-Calais, 14,4 % étaient menacées à l'échelle de la région Hauts-de-France[3].
-Taxons en danger critique (CR)
-Ce sont les taxons confrontés à un risque très élevé de disparition.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019 selon le CBNBL, sur 369 espèces de bryophytes indigènes répertoriées dans le Nord, 13,6 % étaient menacées à échelle de la région Hauts-de-France  ; « Plusieurs espèces y trouvent leur ultime population dans le département du Nord, tel le Lycopode des sols inondés (Lycopodiella inundata), sorte de fougère primitive rencontrée dans les landes sur sol acide et oligotrophetrès pauvre en matières nutritives. » ;
+Et sur 340 espèces de bryophytes indigènes répertoriés dans le Pas-de-Calais, 14,4 % étaient menacées à l'échelle de la région Hauts-de-France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxons en danger</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons en danger critique (CR)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les taxons confrontés à un risque très élevé de disparition.
 Gymnocolea inflata (Huds.) Dumort.
 Preissia quadrata (Scop.) Nees
 Reboulia hemisphaerica (L.) Raddi
@@ -689,8 +742,43 @@
 Tortula lanceola R.H.Zander
 Warnstorfia exannulata (Schimp.) Loeske
 Weissia condensa (Voit) Lindb.
-Taxon en danger (EN)
-Espèces confrontées à un risque élevé de disparition
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxons en danger</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxon en danger (EN)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces confrontées à un risque élevé de disparition
 Lophozia bicrenata (Schmidel ex Hoffm.) Dumort.
 Nardia scalaris Gray
 Ptilidium pulcherrimum (Weber) Vain.
@@ -714,7 +802,43 @@
 Trichostomum brachydontium Bruch
 Trichostomum crispulum Bruch
 Warnstorfia fluitans (Hedw.) Loeske
-Taxons vulnérables (VU)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_rouge_régionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_rouge_r%C3%A9gionale_des_bryophytes_du_Nord-Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxons en danger</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxons vulnérables (VU)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Calypogeia arguta Nees &amp; Mont.
 Cephalozia connivens (Dicks.) Lindb.
 Diplophyllum albicans (L.) Dumort.
